--- a/Power IC Library/Power IC DataBase.xlsx
+++ b/Power IC Library/Power IC DataBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12480" tabRatio="792" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12480" tabRatio="792" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Positive voltage regulators" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="450">
   <si>
     <t>ID</t>
   </si>
@@ -991,15 +991,6 @@
     <t>IRM-05-24</t>
   </si>
   <si>
-    <t>UC2823DW</t>
-  </si>
-  <si>
-    <t>UC2823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UC2823 High Speed PWM Controller </t>
-  </si>
-  <si>
     <t>SO-16 Wide</t>
   </si>
   <si>
@@ -1415,18 +1406,68 @@
   </si>
   <si>
     <t>Footprint Ref 2</t>
+  </si>
+  <si>
+    <t>NCP5901BMNTBG</t>
+  </si>
+  <si>
+    <t>DFN-8 2X2</t>
+  </si>
+  <si>
+    <t>MOSFET Driver, VR12 Compatible, Synchronous Buck</t>
+  </si>
+  <si>
+    <t>UC3823</t>
+  </si>
+  <si>
+    <t>UC3823DW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UC3823 High Speed PWM Controller </t>
+  </si>
+  <si>
+    <t>UC3845</t>
+  </si>
+  <si>
+    <t>UC3845BD1G</t>
+  </si>
+  <si>
+    <t>UC3845 High Performance Current Mode Controllers</t>
+  </si>
+  <si>
+    <t>DA0083</t>
+  </si>
+  <si>
+    <t>TM1E</t>
+  </si>
+  <si>
+    <t>TM1E-2412D</t>
+  </si>
+  <si>
+    <t>Witok</t>
+  </si>
+  <si>
+    <t>TM1(2)E Dual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1526,7 +1567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1566,33 +1607,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1989,7 +2036,7 @@
       </c>
       <c r="N2" s="5" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","L78L00 series (STM).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\L78L00 series (STM).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\L78L00 series (STM).pdf</v>
       </c>
       <c r="O2" s="7" t="str">
         <f>CONCATENATE("Positive voltage regulators ", C2," (",D2,", ",E2,", ",J2,", ",L2,")")</f>
@@ -2039,7 +2086,7 @@
       </c>
       <c r="N3" s="5" t="str">
         <f t="shared" ref="N3:N10" ca="1" si="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","L78L00 series (STM).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\L78L00 series (STM).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\L78L00 series (STM).pdf</v>
       </c>
       <c r="O3" s="7" t="str">
         <f t="shared" ref="O3:O20" si="2">CONCATENATE("Positive voltage regulators ", C3," (",D3,", ",E3,", ",J3,", ",L3,")")</f>
@@ -2089,7 +2136,7 @@
       </c>
       <c r="N4" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\L78L00 series (STM).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\L78L00 series (STM).pdf</v>
       </c>
       <c r="O4" s="7" t="str">
         <f t="shared" si="2"/>
@@ -2139,7 +2186,7 @@
       </c>
       <c r="N5" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\L78L00 series (STM).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\L78L00 series (STM).pdf</v>
       </c>
       <c r="O5" s="7" t="str">
         <f t="shared" si="2"/>
@@ -2189,7 +2236,7 @@
       </c>
       <c r="N6" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\L78L00 series (STM).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\L78L00 series (STM).pdf</v>
       </c>
       <c r="O6" s="7" t="str">
         <f t="shared" si="2"/>
@@ -2239,7 +2286,7 @@
       </c>
       <c r="N7" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\L78L00 series (STM).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\L78L00 series (STM).pdf</v>
       </c>
       <c r="O7" s="7" t="str">
         <f t="shared" si="2"/>
@@ -2289,7 +2336,7 @@
       </c>
       <c r="N8" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\L78L00 series (STM).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\L78L00 series (STM).pdf</v>
       </c>
       <c r="O8" s="7" t="str">
         <f t="shared" si="2"/>
@@ -2339,7 +2386,7 @@
       </c>
       <c r="N9" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\L78L00 series (STM).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\L78L00 series (STM).pdf</v>
       </c>
       <c r="O9" s="7" t="str">
         <f t="shared" si="2"/>
@@ -2389,7 +2436,7 @@
       </c>
       <c r="N10" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\L78L00 series (STM).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\L78L00 series (STM).pdf</v>
       </c>
       <c r="O10" s="7" t="str">
         <f t="shared" si="2"/>
@@ -2456,7 +2503,7 @@
       </c>
       <c r="N12" s="5" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","L78M00 series (STM).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\L78M00 series (STM).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\L78M00 series (STM).pdf</v>
       </c>
       <c r="O12" s="7" t="str">
         <f t="shared" si="2"/>
@@ -2506,7 +2553,7 @@
       </c>
       <c r="N13" s="5" t="str">
         <f t="shared" ref="N13:N20" ca="1" si="4">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","L78M00 series (STM).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\L78M00 series (STM).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\L78M00 series (STM).pdf</v>
       </c>
       <c r="O13" s="7" t="str">
         <f t="shared" si="2"/>
@@ -2556,7 +2603,7 @@
       </c>
       <c r="N14" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\L78M00 series (STM).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\L78M00 series (STM).pdf</v>
       </c>
       <c r="O14" s="7" t="str">
         <f t="shared" si="2"/>
@@ -2606,7 +2653,7 @@
       </c>
       <c r="N15" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\L78M00 series (STM).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\L78M00 series (STM).pdf</v>
       </c>
       <c r="O15" s="7" t="str">
         <f t="shared" si="2"/>
@@ -2656,7 +2703,7 @@
       </c>
       <c r="N16" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\L78M00 series (STM).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\L78M00 series (STM).pdf</v>
       </c>
       <c r="O16" s="7" t="str">
         <f t="shared" si="2"/>
@@ -2706,7 +2753,7 @@
       </c>
       <c r="N17" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\L78M00 series (STM).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\L78M00 series (STM).pdf</v>
       </c>
       <c r="O17" s="7" t="str">
         <f t="shared" si="2"/>
@@ -2756,7 +2803,7 @@
       </c>
       <c r="N18" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\L78M00 series (STM).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\L78M00 series (STM).pdf</v>
       </c>
       <c r="O18" s="7" t="str">
         <f t="shared" si="2"/>
@@ -2806,7 +2853,7 @@
       </c>
       <c r="N19" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\L78M00 series (STM).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\L78M00 series (STM).pdf</v>
       </c>
       <c r="O19" s="7" t="str">
         <f t="shared" si="2"/>
@@ -2856,7 +2903,7 @@
       </c>
       <c r="N20" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\L78M00 series (STM).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\L78M00 series (STM).pdf</v>
       </c>
       <c r="O20" s="7" t="str">
         <f t="shared" si="2"/>
@@ -2923,7 +2970,7 @@
       </c>
       <c r="N22" s="5" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","LM3480 series (TI).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\LM3480 series (TI).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\LM3480 series (TI).pdf</v>
       </c>
       <c r="O22" s="7" t="str">
         <f>CONCATENATE("Positive voltage regulators ", C22," (",D22,", ",E22,", ",J22,", ",L22,")")</f>
@@ -2973,7 +3020,7 @@
       </c>
       <c r="N23" s="5" t="str">
         <f t="shared" ref="N23:N24" ca="1" si="6">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","LM3480 series (TI).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\LM3480 series (TI).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\LM3480 series (TI).pdf</v>
       </c>
       <c r="O23" s="7" t="str">
         <f t="shared" ref="O23:O39" si="7">CONCATENATE("Positive voltage regulators ", C23," (",D23,", ",E23,", ",J23,", ",L23,")")</f>
@@ -3023,7 +3070,7 @@
       </c>
       <c r="N24" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\LM3480 series (TI).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\LM3480 series (TI).pdf</v>
       </c>
       <c r="O24" s="7" t="str">
         <f t="shared" si="7"/>
@@ -3073,7 +3120,7 @@
       </c>
       <c r="N25" s="5" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","LM3480 series (TI).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\LM3480 series (TI).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\LM3480 series (TI).pdf</v>
       </c>
       <c r="O25" s="7" t="str">
         <f t="shared" si="7"/>
@@ -3140,7 +3187,7 @@
       </c>
       <c r="N27" s="5" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","NCP699(OnSemi).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\NCP699(OnSemi).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\NCP699(OnSemi).pdf</v>
       </c>
       <c r="O27" s="7" t="str">
         <f t="shared" si="7"/>
@@ -3190,7 +3237,7 @@
       </c>
       <c r="N28" s="5" t="str">
         <f t="shared" ref="N28:N39" ca="1" si="9">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","NCP699(OnSemi).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\NCP699(OnSemi).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\NCP699(OnSemi).pdf</v>
       </c>
       <c r="O28" s="7" t="str">
         <f t="shared" si="7"/>
@@ -3240,7 +3287,7 @@
       </c>
       <c r="N29" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\NCP699(OnSemi).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\NCP699(OnSemi).pdf</v>
       </c>
       <c r="O29" s="7" t="str">
         <f t="shared" si="7"/>
@@ -3290,7 +3337,7 @@
       </c>
       <c r="N30" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\NCP699(OnSemi).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\NCP699(OnSemi).pdf</v>
       </c>
       <c r="O30" s="7" t="str">
         <f t="shared" si="7"/>
@@ -3340,7 +3387,7 @@
       </c>
       <c r="N31" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\NCP699(OnSemi).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\NCP699(OnSemi).pdf</v>
       </c>
       <c r="O31" s="7" t="str">
         <f t="shared" si="7"/>
@@ -3390,7 +3437,7 @@
       </c>
       <c r="N32" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\NCP699(OnSemi).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\NCP699(OnSemi).pdf</v>
       </c>
       <c r="O32" s="7" t="str">
         <f t="shared" si="7"/>
@@ -3440,7 +3487,7 @@
       </c>
       <c r="N33" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\NCP699(OnSemi).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\NCP699(OnSemi).pdf</v>
       </c>
       <c r="O33" s="7" t="str">
         <f t="shared" si="7"/>
@@ -3490,7 +3537,7 @@
       </c>
       <c r="N34" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\NCP699(OnSemi).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\NCP699(OnSemi).pdf</v>
       </c>
       <c r="O34" s="7" t="str">
         <f t="shared" si="7"/>
@@ -3540,7 +3587,7 @@
       </c>
       <c r="N35" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\NCP699(OnSemi).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\NCP699(OnSemi).pdf</v>
       </c>
       <c r="O35" s="7" t="str">
         <f t="shared" si="7"/>
@@ -3590,7 +3637,7 @@
       </c>
       <c r="N36" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\NCP699(OnSemi).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\NCP699(OnSemi).pdf</v>
       </c>
       <c r="O36" s="7" t="str">
         <f t="shared" si="7"/>
@@ -3640,7 +3687,7 @@
       </c>
       <c r="N37" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\NCP699(OnSemi).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\NCP699(OnSemi).pdf</v>
       </c>
       <c r="O37" s="7" t="str">
         <f t="shared" si="7"/>
@@ -3690,7 +3737,7 @@
       </c>
       <c r="N38" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\NCP699(OnSemi).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\NCP699(OnSemi).pdf</v>
       </c>
       <c r="O38" s="7" t="str">
         <f t="shared" si="7"/>
@@ -3740,7 +3787,7 @@
       </c>
       <c r="N39" s="5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\NCP699(OnSemi).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\NCP699(OnSemi).pdf</v>
       </c>
       <c r="O39" s="7" t="str">
         <f t="shared" si="7"/>
@@ -3774,8 +3821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P94"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P90" sqref="P90"/>
+    <sheetView tabSelected="1" topLeftCell="E37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K90" sqref="K90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3875,7 +3922,7 @@
         <v>40</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>30</v>
@@ -3894,7 +3941,7 @@
       </c>
       <c r="O2" s="4" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","DET01(MeanWell).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\DET01(MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\DET01(MeanWell).pdf</v>
       </c>
       <c r="P2" s="7" t="str">
         <f>CONCATENATE("DC-DC Unregulated Dual Output Converter ", C2," (",D2,", ",E2,", ",F2,", ",M2,")")</f>
@@ -3928,7 +3975,7 @@
         <v>40</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>30</v>
@@ -3947,7 +3994,7 @@
       </c>
       <c r="O3" s="4" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","DET01(MeanWell).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\DET01(MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\DET01(MeanWell).pdf</v>
       </c>
       <c r="P3" s="7" t="str">
         <f t="shared" ref="P3:P9" si="1">CONCATENATE("DC-DC Unregulated Dual Output Converter ", C3," (",D3,", ",E3,", ",F3,", ",M3,")")</f>
@@ -3981,7 +4028,7 @@
         <v>40</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>30</v>
@@ -4000,7 +4047,7 @@
       </c>
       <c r="O4" s="4" t="str">
         <f t="shared" ref="O4:O9" ca="1" si="2">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","DET01(MeanWell).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\DET01(MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\DET01(MeanWell).pdf</v>
       </c>
       <c r="P4" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4034,7 +4081,7 @@
         <v>40</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>30</v>
@@ -4053,7 +4100,7 @@
       </c>
       <c r="O5" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\DET01(MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\DET01(MeanWell).pdf</v>
       </c>
       <c r="P5" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4087,7 +4134,7 @@
         <v>40</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>30</v>
@@ -4106,7 +4153,7 @@
       </c>
       <c r="O6" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\DET01(MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\DET01(MeanWell).pdf</v>
       </c>
       <c r="P6" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4140,7 +4187,7 @@
         <v>40</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>30</v>
@@ -4159,7 +4206,7 @@
       </c>
       <c r="O7" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\DET01(MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\DET01(MeanWell).pdf</v>
       </c>
       <c r="P7" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4193,7 +4240,7 @@
         <v>40</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>30</v>
@@ -4212,7 +4259,7 @@
       </c>
       <c r="O8" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\DET01(MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\DET01(MeanWell).pdf</v>
       </c>
       <c r="P8" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4246,7 +4293,7 @@
         <v>40</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>30</v>
@@ -4265,7 +4312,7 @@
       </c>
       <c r="O9" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\DET01(MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\DET01(MeanWell).pdf</v>
       </c>
       <c r="P9" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4317,7 +4364,7 @@
         <v>40</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>30</v>
@@ -4336,7 +4383,7 @@
       </c>
       <c r="O11" s="4" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","(S)DCWN03 (MeanWell).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
       </c>
       <c r="P11" s="7" t="str">
         <f>CONCATENATE("DC-DC Unregulated Single Output Converter ", C11," (",D11,", ",E11,", ",F11,", ",M11,")")</f>
@@ -4370,7 +4417,7 @@
         <v>40</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>30</v>
@@ -4389,7 +4436,7 @@
       </c>
       <c r="O12" s="4" t="str">
         <f t="shared" ref="O12:O38" ca="1" si="3">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","(S)DCWN03 (MeanWell).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
       </c>
       <c r="P12" s="7" t="str">
         <f t="shared" ref="P12:P26" si="4">CONCATENATE("DC-DC Unregulated Single Output Converter ", C12," (",D12,", ",E12,", ",F12,", ",M12,")")</f>
@@ -4423,7 +4470,7 @@
         <v>40</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>30</v>
@@ -4442,7 +4489,7 @@
       </c>
       <c r="O13" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
       </c>
       <c r="P13" s="7" t="str">
         <f t="shared" si="4"/>
@@ -4476,7 +4523,7 @@
         <v>40</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>30</v>
@@ -4495,7 +4542,7 @@
       </c>
       <c r="O14" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
       </c>
       <c r="P14" s="7" t="str">
         <f t="shared" si="4"/>
@@ -4529,7 +4576,7 @@
         <v>40</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>30</v>
@@ -4548,7 +4595,7 @@
       </c>
       <c r="O15" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
       </c>
       <c r="P15" s="7" t="str">
         <f t="shared" si="4"/>
@@ -4582,7 +4629,7 @@
         <v>40</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>30</v>
@@ -4601,7 +4648,7 @@
       </c>
       <c r="O16" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
       </c>
       <c r="P16" s="7" t="str">
         <f t="shared" si="4"/>
@@ -4635,7 +4682,7 @@
         <v>40</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>30</v>
@@ -4654,7 +4701,7 @@
       </c>
       <c r="O17" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
       </c>
       <c r="P17" s="7" t="str">
         <f t="shared" si="4"/>
@@ -4688,7 +4735,7 @@
         <v>40</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>30</v>
@@ -4707,7 +4754,7 @@
       </c>
       <c r="O18" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
       </c>
       <c r="P18" s="7" t="str">
         <f t="shared" si="4"/>
@@ -4741,7 +4788,7 @@
         <v>40</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>30</v>
@@ -4760,7 +4807,7 @@
       </c>
       <c r="O19" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
       </c>
       <c r="P19" s="7" t="str">
         <f t="shared" si="4"/>
@@ -4794,7 +4841,7 @@
         <v>40</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>30</v>
@@ -4813,7 +4860,7 @@
       </c>
       <c r="O20" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
       </c>
       <c r="P20" s="7" t="str">
         <f t="shared" si="4"/>
@@ -4847,7 +4894,7 @@
         <v>40</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>30</v>
@@ -4866,7 +4913,7 @@
       </c>
       <c r="O21" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
       </c>
       <c r="P21" s="7" t="str">
         <f t="shared" si="4"/>
@@ -4900,7 +4947,7 @@
         <v>40</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>30</v>
@@ -4919,7 +4966,7 @@
       </c>
       <c r="O22" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
       </c>
       <c r="P22" s="7" t="str">
         <f t="shared" si="4"/>
@@ -4953,7 +5000,7 @@
         <v>40</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>30</v>
@@ -4972,7 +5019,7 @@
       </c>
       <c r="O23" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
       </c>
       <c r="P23" s="7" t="str">
         <f t="shared" si="4"/>
@@ -5006,7 +5053,7 @@
         <v>40</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>30</v>
@@ -5025,7 +5072,7 @@
       </c>
       <c r="O24" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
       </c>
       <c r="P24" s="7" t="str">
         <f t="shared" si="4"/>
@@ -5059,7 +5106,7 @@
         <v>40</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>30</v>
@@ -5078,7 +5125,7 @@
       </c>
       <c r="O25" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
       </c>
       <c r="P25" s="7" t="str">
         <f t="shared" si="4"/>
@@ -5112,7 +5159,7 @@
         <v>40</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>30</v>
@@ -5131,7 +5178,7 @@
       </c>
       <c r="O26" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
       </c>
       <c r="P26" s="7" t="str">
         <f t="shared" si="4"/>
@@ -5165,7 +5212,7 @@
         <v>40</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>30</v>
@@ -5184,7 +5231,7 @@
       </c>
       <c r="O27" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
       </c>
       <c r="P27" s="7" t="str">
         <f>CONCATENATE("DC-DC Unregulated Dual Output Converter ", C27," (",D27,", ",E27,", ",F27,", ",M27,")")</f>
@@ -5218,7 +5265,7 @@
         <v>40</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>30</v>
@@ -5237,7 +5284,7 @@
       </c>
       <c r="O28" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
       </c>
       <c r="P28" s="7" t="str">
         <f t="shared" ref="P28:P38" si="5">CONCATENATE("DC-DC Unregulated Dual Output Converter ", C28," (",D28,", ",E28,", ",F28,", ",M28,")")</f>
@@ -5271,7 +5318,7 @@
         <v>40</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>30</v>
@@ -5290,7 +5337,7 @@
       </c>
       <c r="O29" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
       </c>
       <c r="P29" s="7" t="str">
         <f t="shared" si="5"/>
@@ -5324,7 +5371,7 @@
         <v>40</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J30" s="6" t="s">
         <v>30</v>
@@ -5343,7 +5390,7 @@
       </c>
       <c r="O30" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
       </c>
       <c r="P30" s="7" t="str">
         <f t="shared" si="5"/>
@@ -5377,7 +5424,7 @@
         <v>40</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J31" s="6" t="s">
         <v>30</v>
@@ -5396,7 +5443,7 @@
       </c>
       <c r="O31" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
       </c>
       <c r="P31" s="7" t="str">
         <f t="shared" si="5"/>
@@ -5430,7 +5477,7 @@
         <v>40</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>30</v>
@@ -5449,7 +5496,7 @@
       </c>
       <c r="O32" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
       </c>
       <c r="P32" s="7" t="str">
         <f t="shared" si="5"/>
@@ -5483,7 +5530,7 @@
         <v>40</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J33" s="6" t="s">
         <v>30</v>
@@ -5502,7 +5549,7 @@
       </c>
       <c r="O33" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
       </c>
       <c r="P33" s="7" t="str">
         <f t="shared" si="5"/>
@@ -5536,7 +5583,7 @@
         <v>40</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J34" s="6" t="s">
         <v>30</v>
@@ -5555,7 +5602,7 @@
       </c>
       <c r="O34" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
       </c>
       <c r="P34" s="7" t="str">
         <f t="shared" si="5"/>
@@ -5589,7 +5636,7 @@
         <v>40</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>30</v>
@@ -5608,7 +5655,7 @@
       </c>
       <c r="O35" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
       </c>
       <c r="P35" s="7" t="str">
         <f t="shared" si="5"/>
@@ -5642,7 +5689,7 @@
         <v>40</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J36" s="6" t="s">
         <v>30</v>
@@ -5661,7 +5708,7 @@
       </c>
       <c r="O36" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
       </c>
       <c r="P36" s="7" t="str">
         <f t="shared" si="5"/>
@@ -5695,7 +5742,7 @@
         <v>40</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J37" s="6" t="s">
         <v>30</v>
@@ -5714,7 +5761,7 @@
       </c>
       <c r="O37" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
       </c>
       <c r="P37" s="7" t="str">
         <f t="shared" si="5"/>
@@ -5748,7 +5795,7 @@
         <v>40</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J38" s="6" t="s">
         <v>30</v>
@@ -5767,7 +5814,7 @@
       </c>
       <c r="O38" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\(S)DCWN03 (MeanWell).pdf</v>
       </c>
       <c r="P38" s="7" t="str">
         <f t="shared" si="5"/>
@@ -5794,13 +5841,13 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>17</v>
@@ -5819,26 +5866,26 @@
         <v>40</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L40" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M40" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N40" s="4" t="s">
         <v>132</v>
       </c>
       <c r="O40" s="4" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","A_XT-1WR2(MORNSUN).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P40" s="7" t="str">
         <f t="shared" ref="P40:P58" si="6">CONCATENATE("DC-DC Unregulated Dual Output Converter ", C40," (",D40,", ",E40,", ",F40,", ",M40,")")</f>
@@ -5847,13 +5894,13 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>17</v>
@@ -5872,26 +5919,26 @@
         <v>40</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J41" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L41" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N41" s="4" t="s">
         <v>132</v>
       </c>
       <c r="O41" s="4" t="str">
         <f t="shared" ref="O41:O58" ca="1" si="7">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","A_XT-1WR2(MORNSUN).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P41" s="7" t="str">
         <f t="shared" si="6"/>
@@ -5900,13 +5947,13 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>308</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>311</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>17</v>
@@ -5925,26 +5972,26 @@
         <v>40</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J42" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K42" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="L42" t="s">
         <v>308</v>
       </c>
-      <c r="L42" t="s">
-        <v>311</v>
-      </c>
       <c r="M42" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N42" s="4" t="s">
         <v>132</v>
       </c>
       <c r="O42" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P42" s="7" t="str">
         <f t="shared" si="6"/>
@@ -5953,13 +6000,13 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D43" s="19" t="s">
         <v>18</v>
@@ -5978,26 +6025,26 @@
         <v>40</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J43" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L43" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M43" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N43" s="4" t="s">
         <v>132</v>
       </c>
       <c r="O43" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P43" s="7" t="str">
         <f t="shared" si="6"/>
@@ -6006,19 +6053,19 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>308</v>
-      </c>
       <c r="C44" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D44" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>130</v>
@@ -6031,26 +6078,26 @@
         <v>40</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J44" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L44" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M44" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N44" s="4" t="s">
         <v>132</v>
       </c>
       <c r="O44" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P44" s="7" t="str">
         <f t="shared" si="6"/>
@@ -6059,13 +6106,13 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D45" s="19" t="s">
         <v>18</v>
@@ -6084,26 +6131,26 @@
         <v>40</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J45" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L45" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M45" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N45" s="4" t="s">
         <v>132</v>
       </c>
       <c r="O45" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P45" s="7" t="str">
         <f t="shared" si="6"/>
@@ -6112,13 +6159,13 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D46" s="19" t="s">
         <v>18</v>
@@ -6137,26 +6184,26 @@
         <v>40</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J46" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L46" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M46" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N46" s="4" t="s">
         <v>132</v>
       </c>
       <c r="O46" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P46" s="7" t="str">
         <f t="shared" si="6"/>
@@ -6165,19 +6212,19 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D47" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>130</v>
@@ -6190,26 +6237,26 @@
         <v>40</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J47" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L47" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M47" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N47" s="4" t="s">
         <v>132</v>
       </c>
       <c r="O47" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P47" s="7" t="str">
         <f t="shared" si="6"/>
@@ -6218,13 +6265,13 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D48" s="19" t="s">
         <v>22</v>
@@ -6243,26 +6290,26 @@
         <v>40</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J48" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L48" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M48" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N48" s="4" t="s">
         <v>132</v>
       </c>
       <c r="O48" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P48" s="7" t="str">
         <f t="shared" si="6"/>
@@ -6271,19 +6318,19 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D49" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>130</v>
@@ -6296,26 +6343,26 @@
         <v>40</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J49" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L49" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M49" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N49" s="4" t="s">
         <v>132</v>
       </c>
       <c r="O49" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P49" s="7" t="str">
         <f t="shared" si="6"/>
@@ -6324,13 +6371,13 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D50" s="19" t="s">
         <v>22</v>
@@ -6349,26 +6396,26 @@
         <v>40</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J50" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L50" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M50" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N50" s="4" t="s">
         <v>132</v>
       </c>
       <c r="O50" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P50" s="7" t="str">
         <f t="shared" si="6"/>
@@ -6377,13 +6424,13 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D51" s="19" t="s">
         <v>22</v>
@@ -6402,26 +6449,26 @@
         <v>40</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J51" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L51" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M51" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N51" s="4" t="s">
         <v>132</v>
       </c>
       <c r="O51" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P51" s="7" t="str">
         <f t="shared" si="6"/>
@@ -6430,19 +6477,19 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D52" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>130</v>
@@ -6455,26 +6502,26 @@
         <v>40</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J52" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L52" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M52" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N52" s="4" t="s">
         <v>132</v>
       </c>
       <c r="O52" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P52" s="7" t="str">
         <f t="shared" si="6"/>
@@ -6483,13 +6530,13 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D53" s="19" t="s">
         <v>23</v>
@@ -6508,26 +6555,26 @@
         <v>40</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J53" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L53" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M53" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N53" s="4" t="s">
         <v>132</v>
       </c>
       <c r="O53" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P53" s="7" t="str">
         <f t="shared" si="6"/>
@@ -6536,13 +6583,13 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>25</v>
@@ -6561,26 +6608,26 @@
         <v>40</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J54" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L54" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M54" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N54" s="4" t="s">
         <v>132</v>
       </c>
       <c r="O54" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P54" s="7" t="str">
         <f t="shared" si="6"/>
@@ -6589,19 +6636,19 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>130</v>
@@ -6614,26 +6661,26 @@
         <v>40</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J55" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L55" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M55" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N55" s="4" t="s">
         <v>132</v>
       </c>
       <c r="O55" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P55" s="7" t="str">
         <f t="shared" si="6"/>
@@ -6642,13 +6689,13 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>25</v>
@@ -6667,26 +6714,26 @@
         <v>40</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J56" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L56" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M56" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N56" s="4" t="s">
         <v>132</v>
       </c>
       <c r="O56" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P56" s="7" t="str">
         <f t="shared" si="6"/>
@@ -6695,13 +6742,13 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>25</v>
@@ -6720,26 +6767,26 @@
         <v>40</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J57" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L57" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M57" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N57" s="4" t="s">
         <v>132</v>
       </c>
       <c r="O57" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P57" s="7" t="str">
         <f t="shared" si="6"/>
@@ -6748,19 +6795,19 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>130</v>
@@ -6773,26 +6820,26 @@
         <v>40</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J58" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L58" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M58" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N58" s="4" t="s">
         <v>132</v>
       </c>
       <c r="O58" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\A_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P58" s="7" t="str">
         <f t="shared" si="6"/>
@@ -6819,13 +6866,13 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D60" s="19" t="s">
         <v>17</v>
@@ -6844,26 +6891,26 @@
         <v>40</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J60" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M60" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O60" s="4" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","B_XT-1WR2(MORNSUN).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P60" s="7" t="str">
         <f>CONCATENATE("DC-DC Unregulated Single Output Converter ", C60," (",D60,", ",E60,", ",F60,", ",M60,")")</f>
@@ -6872,13 +6919,13 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D61" s="19" t="s">
         <v>17</v>
@@ -6897,26 +6944,26 @@
         <v>40</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J61" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M61" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O61" s="4" t="str">
         <f t="shared" ref="O61:O87" ca="1" si="8">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","B_XT-1WR2(MORNSUN).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P61" s="7" t="str">
         <f t="shared" ref="P61:P87" si="9">CONCATENATE("DC-DC Unregulated Single Output Converter ", C61," (",D61,", ",E61,", ",F61,", ",M61,")")</f>
@@ -6925,13 +6972,13 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>380</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>383</v>
       </c>
       <c r="D62" s="19" t="s">
         <v>17</v>
@@ -6950,26 +6997,26 @@
         <v>40</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J62" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K62" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="L62" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="L62" s="4" t="s">
-        <v>383</v>
-      </c>
       <c r="M62" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O62" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P62" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6978,13 +7025,13 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>17</v>
@@ -7003,26 +7050,26 @@
         <v>40</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J63" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M63" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O63" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P63" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7031,13 +7078,13 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>17</v>
@@ -7056,26 +7103,26 @@
         <v>40</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J64" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M64" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O64" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P64" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7084,13 +7131,13 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D65" s="19" t="s">
         <v>17</v>
@@ -7109,26 +7156,26 @@
         <v>40</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J65" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M65" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O65" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P65" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7137,13 +7184,13 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D66" s="19" t="s">
         <v>18</v>
@@ -7162,26 +7209,26 @@
         <v>40</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J66" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M66" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O66" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P66" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7190,13 +7237,13 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D67" s="19" t="s">
         <v>18</v>
@@ -7215,26 +7262,26 @@
         <v>40</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J67" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M67" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O67" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P67" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7243,13 +7290,13 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D68" s="19" t="s">
         <v>18</v>
@@ -7268,26 +7315,26 @@
         <v>40</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J68" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M68" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O68" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P68" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7296,13 +7343,13 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D69" s="19" t="s">
         <v>18</v>
@@ -7321,26 +7368,26 @@
         <v>40</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J69" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M69" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O69" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P69" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7349,13 +7396,13 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D70" s="19" t="s">
         <v>18</v>
@@ -7374,26 +7421,26 @@
         <v>40</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J70" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M70" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O70" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P70" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7402,13 +7449,13 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D71" s="19" t="s">
         <v>18</v>
@@ -7427,26 +7474,26 @@
         <v>40</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J71" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="M71" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O71" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P71" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7455,13 +7502,13 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D72" s="19" t="s">
         <v>18</v>
@@ -7480,26 +7527,26 @@
         <v>40</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J72" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M72" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O72" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P72" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7508,13 +7555,13 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D73" s="19" t="s">
         <v>22</v>
@@ -7533,26 +7580,26 @@
         <v>40</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J73" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M73" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O73" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P73" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7561,13 +7608,13 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D74" s="19" t="s">
         <v>22</v>
@@ -7586,26 +7633,26 @@
         <v>40</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J74" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M74" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O74" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P74" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7614,13 +7661,13 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D75" s="19" t="s">
         <v>22</v>
@@ -7639,26 +7686,26 @@
         <v>40</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J75" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M75" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O75" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P75" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7667,13 +7714,13 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D76" s="19" t="s">
         <v>22</v>
@@ -7692,26 +7739,26 @@
         <v>40</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J76" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M76" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O76" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P76" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7720,13 +7767,13 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D77" s="19" t="s">
         <v>22</v>
@@ -7745,26 +7792,26 @@
         <v>40</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J77" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M77" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O77" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P77" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7773,13 +7820,13 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D78" s="19" t="s">
         <v>22</v>
@@ -7798,26 +7845,26 @@
         <v>40</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J78" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M78" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O78" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P78" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7826,13 +7873,13 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D79" s="19" t="s">
         <v>23</v>
@@ -7851,26 +7898,26 @@
         <v>40</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J79" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M79" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O79" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P79" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7879,13 +7926,13 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D80" s="19" t="s">
         <v>23</v>
@@ -7904,26 +7951,26 @@
         <v>40</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J80" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M80" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O80" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P80" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7932,13 +7979,13 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D81" s="19" t="s">
         <v>23</v>
@@ -7957,26 +8004,26 @@
         <v>40</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J81" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M81" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O81" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P81" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7985,13 +8032,13 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D82" s="19" t="s">
         <v>25</v>
@@ -8010,26 +8057,26 @@
         <v>40</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J82" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M82" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O82" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P82" s="7" t="str">
         <f t="shared" si="9"/>
@@ -8038,13 +8085,13 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D83" s="19" t="s">
         <v>25</v>
@@ -8063,26 +8110,26 @@
         <v>40</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J83" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M83" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O83" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P83" s="7" t="str">
         <f t="shared" si="9"/>
@@ -8091,13 +8138,13 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D84" s="19" t="s">
         <v>25</v>
@@ -8116,26 +8163,26 @@
         <v>40</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J84" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="M84" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O84" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P84" s="7" t="str">
         <f t="shared" si="9"/>
@@ -8144,13 +8191,13 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>380</v>
-      </c>
       <c r="C85" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D85" s="19" t="s">
         <v>25</v>
@@ -8169,26 +8216,26 @@
         <v>40</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J85" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L85" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="M85" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="N85" s="4" t="s">
         <v>406</v>
-      </c>
-      <c r="M85" s="23" t="s">
-        <v>342</v>
-      </c>
-      <c r="N85" s="4" t="s">
-        <v>409</v>
       </c>
       <c r="O85" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P85" s="7" t="str">
         <f t="shared" si="9"/>
@@ -8197,13 +8244,13 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D86" s="19" t="s">
         <v>25</v>
@@ -8222,26 +8269,26 @@
         <v>40</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J86" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M86" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O86" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P86" s="7" t="str">
         <f t="shared" si="9"/>
@@ -8250,13 +8297,13 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D87" s="19" t="s">
         <v>25</v>
@@ -8275,26 +8322,26 @@
         <v>40</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J87" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M87" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O87" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\B_XT-1WR2(MORNSUN).pdf</v>
       </c>
       <c r="P87" s="7" t="str">
         <f t="shared" si="9"/>
@@ -8302,10 +8349,75 @@
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A88" s="4"/>
+      <c r="A88" s="12"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="10"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A89" s="4"/>
+      <c r="A89" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G89" s="4" t="str">
+        <f t="shared" ref="G89" si="11">CONCATENATE(C89," (",D89,", ",E89,")")</f>
+        <v>TM1E-2412D (24 V, ±12 V)</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="M89" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O89" s="4" t="str">
+        <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","TM1(2)E (Witok).pdf")</f>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\TM1(2)E (Witok).pdf</v>
+      </c>
+      <c r="P89" s="7" t="str">
+        <f t="shared" ref="P89" si="12">CONCATENATE("DC-DC Unregulated Single Output Converter ", C89," (",D89,", ",E89,", ",F89,", ",M89,")")</f>
+        <v>DC-DC Unregulated Single Output Converter TM1E-2412D (24 V, ±12 V, 1W, Witok)</v>
+      </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
@@ -8330,10 +8442,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8346,10 +8458,11 @@
     <col min="6" max="6" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="63.88671875" customWidth="1"/>
-    <col min="12" max="12" width="69.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="62.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="69.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="63.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -8398,7 +8511,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="5" t="str">
-        <f>CONCATENATE(B2,"(",G2,")")</f>
+        <f t="shared" ref="C2:C7" si="0">CONCATENATE(B2,"(",G2,")")</f>
         <v>HV9910B(SO-8 Narrow)</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -8424,7 +8537,7 @@
       </c>
       <c r="K2" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","HV9910B(Supertex).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\HV9910B(Supertex).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\HV9910B(Supertex).pdf</v>
       </c>
       <c r="L2" s="14" t="str">
         <f>CONCATENATE(J2, B2," ( ",G2,", ",I2,")")</f>
@@ -8439,7 +8552,7 @@
         <v>121</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f>CONCATENATE(B3,"(",G3,")")</f>
+        <f t="shared" si="0"/>
         <v>TL598(SO-16 Narrow)</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -8465,7 +8578,7 @@
       </c>
       <c r="K3" s="5" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","TL598(TI).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\TL598(TI).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\TL598(TI).pdf</v>
       </c>
       <c r="L3" s="14" t="str">
         <f>CONCATENATE(J3, B3," ( ",G3,", ",I3,")")</f>
@@ -8480,7 +8593,7 @@
         <v>265</v>
       </c>
       <c r="C4" s="4" t="str">
-        <f>CONCATENATE(B4,"(",G4,")")</f>
+        <f t="shared" si="0"/>
         <v>TL494(SO-16 Narrow)</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -8506,7 +8619,7 @@
       </c>
       <c r="K4" s="5" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","TL494(TI).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\TL494(TI).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\TL494(TI).pdf</v>
       </c>
       <c r="L4" s="14" t="str">
         <f>CONCATENATE(J4, B4," ( ",G4,", ",I4,")")</f>
@@ -8518,40 +8631,40 @@
         <v>44</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>298</v>
+        <v>439</v>
       </c>
       <c r="C5" s="4" t="str">
-        <f>CONCATENATE(B5,"(",G5,")")</f>
-        <v>UC2823(SO-16 Wide)</v>
+        <f t="shared" si="0"/>
+        <v>UC3823(SO-16 Wide)</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>298</v>
+        <v>439</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>297</v>
+        <v>440</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>81</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>299</v>
+        <v>441</v>
       </c>
       <c r="K5" s="5" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","UC3823(TI).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\UC3823(TI).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\UC3823(TI).pdf</v>
       </c>
       <c r="L5" s="14" t="str">
         <f>CONCATENATE(J5, B5," ( ",G5,", ",I5,")")</f>
-        <v>UC2823 High Speed PWM Controller UC2823 ( SO-16 Wide, TI)</v>
+        <v>UC3823 High Speed PWM Controller UC3823 ( SO-16 Wide, TI)</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -8559,40 +8672,81 @@
         <v>45</v>
       </c>
       <c r="B6" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>SG6859A(SOT23-6)</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="H6" s="22" t="s">
         <v>410</v>
-      </c>
-      <c r="C6" s="4" t="str">
-        <f>CONCATENATE(B6,"(",G6,")")</f>
-        <v>SG6859A(SOT23-6)</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>410</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>413</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>229</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K6" s="5" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","SG6859A(ON).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\SG6859A(ON).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\SG6859A(ON).pdf</v>
       </c>
       <c r="L6" s="14" t="str">
         <f>CONCATENATE(J6," ", B6," ( ",G6,", ",I6,")")</f>
         <v>SG6859 PWM Controller for Flyback Converters SG6859A ( SOT23-6, ON)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>UC3845(SO-8 Narrow)</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="K7" s="5" t="str">
+        <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","UC3845(TI).pdf")</f>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\UC3845(TI).pdf</v>
+      </c>
+      <c r="L7" s="14" t="str">
+        <f>CONCATENATE(J7, B7," ( ",G7,", ",I7,")")</f>
+        <v>UC3845 High Performance Current Mode ControllersUC3845 ( SO-8 Narrow, TI)</v>
       </c>
     </row>
   </sheetData>
@@ -8722,7 +8876,7 @@
       </c>
       <c r="O2" s="4" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","IRM-60 Series (MeanWell).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\IRM-60 Series (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\IRM-60 Series (MeanWell).pdf</v>
       </c>
       <c r="P2" s="7" t="str">
         <f t="shared" ref="P2:P6" si="0">CONCATENATE("AC-DC Module-type Power Supply ", C2," (Input: ",D2,", Output:",E2,", ",F2,", ",M2,")")</f>
@@ -8775,7 +8929,7 @@
       </c>
       <c r="O3" s="4" t="str">
         <f t="shared" ref="O3:O6" ca="1" si="2">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","IRM-60 Series (MeanWell).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\IRM-60 Series (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\IRM-60 Series (MeanWell).pdf</v>
       </c>
       <c r="P3" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8828,7 +8982,7 @@
       </c>
       <c r="O4" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\IRM-60 Series (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\IRM-60 Series (MeanWell).pdf</v>
       </c>
       <c r="P4" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8881,7 +9035,7 @@
       </c>
       <c r="O5" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\IRM-60 Series (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\IRM-60 Series (MeanWell).pdf</v>
       </c>
       <c r="P5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8934,7 +9088,7 @@
       </c>
       <c r="O6" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\IRM-60 Series (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\IRM-60 Series (MeanWell).pdf</v>
       </c>
       <c r="P6" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8987,7 +9141,7 @@
       </c>
       <c r="O7" s="4" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","IRM-05 Series (MeanWell).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\IRM-05 Series (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\IRM-05 Series (MeanWell).pdf</v>
       </c>
       <c r="P7" s="7" t="str">
         <f>CONCATENATE("AC-DC Module-type Power Supply ", C7," (Input: ",D7,", Output:",E7,", ",F7,", ",M7,")")</f>
@@ -9040,7 +9194,7 @@
       </c>
       <c r="O8" s="4" t="str">
         <f t="shared" ref="O8:O11" ca="1" si="5">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","IRM-05 Series (MeanWell).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\IRM-05 Series (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\IRM-05 Series (MeanWell).pdf</v>
       </c>
       <c r="P8" s="7" t="str">
         <f t="shared" ref="P8:P11" si="6">CONCATENATE("AC-DC Module-type Power Supply ", C8," (Input: ",D8,", Output:",E8,", ",F8,", ",M8,")")</f>
@@ -9093,7 +9247,7 @@
       </c>
       <c r="O9" s="4" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\IRM-05 Series (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\IRM-05 Series (MeanWell).pdf</v>
       </c>
       <c r="P9" s="7" t="str">
         <f t="shared" si="6"/>
@@ -9146,7 +9300,7 @@
       </c>
       <c r="O10" s="4" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\IRM-05 Series (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\IRM-05 Series (MeanWell).pdf</v>
       </c>
       <c r="P10" s="7" t="str">
         <f t="shared" si="6"/>
@@ -9199,7 +9353,7 @@
       </c>
       <c r="O11" s="4" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\IRM-05 Series (MeanWell).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\IRM-05 Series (MeanWell).pdf</v>
       </c>
       <c r="P11" s="7" t="str">
         <f t="shared" si="6"/>
@@ -9213,21 +9367,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="63" style="4" bestFit="1" customWidth="1"/>
@@ -9313,7 +9467,7 @@
       </c>
       <c r="K2" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","IRS2005(IRF).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\IRS2005(IRF).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\IRS2005(IRF).pdf</v>
       </c>
       <c r="L2" s="7" t="str">
         <f t="shared" ref="L2:L6" si="1">CONCATENATE(J2," "," ( ",G2,", ",I2,")")</f>
@@ -9355,7 +9509,7 @@
       </c>
       <c r="K3" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","IR4427S(IRF).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\IR4427S(IRF).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\IR4427S(IRF).pdf</v>
       </c>
       <c r="L3" s="7" t="str">
         <f t="shared" si="1"/>
@@ -9396,7 +9550,7 @@
       </c>
       <c r="K4" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","L6743D(STM).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\L6743D(STM).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\L6743D(STM).pdf</v>
       </c>
       <c r="L4" s="7" t="str">
         <f t="shared" si="1"/>
@@ -9437,7 +9591,7 @@
       </c>
       <c r="K5" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","TLP700H(Toshiba).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\TLP700H(Toshiba).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\TLP700H(Toshiba).pdf</v>
       </c>
       <c r="L5" s="7" t="str">
         <f t="shared" si="1"/>
@@ -9478,7 +9632,7 @@
       </c>
       <c r="K6" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\IRS2184S(IRF).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\IRS2184S(IRF).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\IRS2184S(IRF).pdf</v>
       </c>
       <c r="L6" s="7" t="str">
         <f t="shared" si="1"/>
@@ -9519,7 +9673,7 @@
       </c>
       <c r="K7" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\NCP81075(OnSemi).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\NCP81075(OnSemi).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\NCP81075(OnSemi).pdf</v>
       </c>
       <c r="L7" s="7" t="str">
         <f>CONCATENATE(J7," "," ( ",G7,", ",I7,")")</f>
@@ -9531,7 +9685,7 @@
         <v>47</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C8" s="4" t="str">
         <f t="shared" ref="C8" si="2">CONCATENATE(B8,"(",G8,")")</f>
@@ -9541,7 +9695,7 @@
         <v>40</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>30</v>
@@ -9550,17 +9704,17 @@
         <v>29</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>64</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K8" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\IRS2186S(IRF).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\IRS2186S(IRF).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\IRS2186S(IRF).pdf</v>
       </c>
       <c r="L8" s="7" t="str">
         <f t="shared" ref="L8" si="3">CONCATENATE(J8," "," ( ",G8,", ",I8,")")</f>
@@ -9572,7 +9726,7 @@
         <v>48</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C9" s="4" t="str">
         <f t="shared" ref="C9" si="4">CONCATENATE(B9,"(",G9,")")</f>
@@ -9582,7 +9736,7 @@
         <v>40</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>30</v>
@@ -9591,17 +9745,17 @@
         <v>29</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K9" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\2ED2181S06F(INF).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\2ED2181S06F(INF).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\2ED2181S06F(INF).pdf</v>
       </c>
       <c r="L9" s="7" t="str">
         <f t="shared" ref="L9" si="5">CONCATENATE(J9," "," ( ",G9,", ",I9,")")</f>
@@ -9613,7 +9767,7 @@
         <v>49</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C10" s="4" t="str">
         <f t="shared" ref="C10:C11" si="6">CONCATENATE(B10,"(",G10,")")</f>
@@ -9623,7 +9777,7 @@
         <v>40</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>30</v>
@@ -9632,17 +9786,17 @@
         <v>29</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="K10" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\TC4452(Microchip).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\TC4452(Microchip).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\TC4452(Microchip).pdf</v>
       </c>
       <c r="L10" s="7" t="str">
         <f t="shared" ref="L10:L11" si="7">CONCATENATE(J10," "," ( ",G10,", ",I10,")")</f>
@@ -9654,7 +9808,7 @@
         <v>69</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C11" s="4" t="str">
         <f t="shared" si="6"/>
@@ -9664,26 +9818,26 @@
         <v>40</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="J11" t="s">
         <v>422</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="J11" t="s">
-        <v>425</v>
       </c>
       <c r="K11" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\ZXGD3002E6(DIODES).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\ZXGD3002E6(DIODES).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\ZXGD3002E6(DIODES).pdf</v>
       </c>
       <c r="L11" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9695,7 +9849,7 @@
         <v>70</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C12" s="4" t="str">
         <f>CONCATENATE(B12,"(",G12,")")</f>
@@ -9705,30 +9859,71 @@
         <v>40</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>423</v>
-      </c>
       <c r="I12" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="J12" t="s">
         <v>421</v>
-      </c>
-      <c r="J12" t="s">
-        <v>424</v>
       </c>
       <c r="K12" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\ZXGD3006E6Q(DIODES).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\ZXGD3006E6Q(DIODES).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\ZXGD3006E6Q(DIODES).pdf</v>
       </c>
       <c r="L12" s="7" t="str">
         <f>CONCATENATE(J12," "," ( ",G12,", ",I12,")")</f>
         <v>40V 10A GATE DRIVER IN SOT26  ( SOT23-6, DIODES)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f>CONCATENATE(B13,"(",G13,")")</f>
+        <v>NCP5901BMNTBG(DFN-8 2X2)</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="J13" t="s">
+        <v>438</v>
+      </c>
+      <c r="K13" t="str">
+        <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\NCP5901B(OnSemi).pdf")</f>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\NCP5901B(OnSemi).pdf</v>
+      </c>
+      <c r="L13" s="7" t="str">
+        <f>CONCATENATE(J13," "," ( ",G13,", ",I13,")")</f>
+        <v>MOSFET Driver, VR12 Compatible, Synchronous Buck  ( DFN-8 2X2, OnSemi)</v>
       </c>
     </row>
   </sheetData>
@@ -9853,7 +10048,7 @@
       </c>
       <c r="N2" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","IFX007T(INF).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\IFX007T(INF).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\IFX007T(INF).pdf</v>
       </c>
       <c r="O2" s="7" t="str">
         <f>CONCATENATE("Half Bridge Circuits ", B2," (",C2,", ",D2,", ",E2,", ",J2,", ",L2,")")</f>
@@ -9869,7 +10064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -9923,7 +10118,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>7</v>
@@ -9946,13 +10141,13 @@
         <v>41</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>26</v>
@@ -9965,7 +10160,7 @@
         <v>40</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>30</v>
@@ -9974,17 +10169,17 @@
         <v>66</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>81</v>
       </c>
       <c r="N2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="O2" s="5" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","TL43xx series (TI).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\TL43xx series (TI).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\TL43xx series (TI).pdf</v>
       </c>
       <c r="P2" s="7" t="str">
         <f>CONCATENATE("Positive voltage regulators ", C2," (",D2,", ",E2,", ",J2,", ",M2,")")</f>
@@ -9996,16 +10191,16 @@
         <v>42</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>430</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="F3" s="4" t="str">
         <f>CONCATENATE(C3," (",J3,")")</f>
@@ -10015,29 +10210,29 @@
         <v>40</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>437</v>
-      </c>
       <c r="L3" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>81</v>
       </c>
       <c r="N3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="O3" s="5" t="str">
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\","LM317(TI).pdf")</f>
-        <v>C:\Users\Ivan\OneDrive\Altium Libraries\Power IC Library\DataSheet\LM317(TI).pdf</v>
+        <v>C:\Altium Libraries\Power IC Library\DataSheet\LM317(TI).pdf</v>
       </c>
       <c r="P3" s="7" t="str">
         <f>CONCATENATE(N3, C3," (",D3,", ",E3,", ",J3,", ",M3,")")</f>
